--- a/data/FutureDetectors.xlsx
+++ b/data/FutureDetectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lieke/surfdrive/Documents/PhD_Thesis/Figures/Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvanson/Documents/Projects/PhD_Thesis/Figures/Code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE5DDA-C517-F84F-91F4-35CB1D040ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9450BC5-078B-A341-A47F-BA99BA4DC488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{9233DD7D-7F17-BB48-95D3-0DF20F3D9DEA}"/>
+    <workbookView xWindow="12860" yWindow="-14580" windowWidth="24920" windowHeight="11280" xr2:uid="{9233DD7D-7F17-BB48-95D3-0DF20F3D9DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Electromagnet wave observations" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>freq_end</t>
+  </si>
+  <si>
+    <t>BlackGEM</t>
+  </si>
+  <si>
+    <t>https://astro.ru.nl/blackgem/</t>
   </si>
 </sst>
 </file>
@@ -581,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -696,6 +702,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -717,9 +732,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -757,7 +772,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -863,7 +878,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1005,7 +1020,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1013,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F51209A-EE9C-8D4C-8A54-C3EF3BC5A741}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1207,218 +1222,247 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="44">
+        <v>2023</v>
+      </c>
+      <c r="C7" s="44">
+        <v>5</v>
+      </c>
+      <c r="D7" s="44">
+        <v>2028</v>
+      </c>
+      <c r="E7" s="44">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34">
+        <f xml:space="preserve"> 340 *0.000000001</f>
+        <v>3.4000000000000003E-7</v>
+      </c>
+      <c r="G7" s="45">
+        <f xml:space="preserve"> 980 *0.000000001</f>
+        <v>9.8000000000000015E-7</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>2024</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>2034</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="33">
         <f>320*0.000000001</f>
         <v>3.2000000000000001E-7</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G8" s="35">
         <f>1060*0.000000001</f>
         <v>1.06E-6</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I8" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+    <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B9" s="5">
         <v>2020</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>2025</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="34">
         <f>0.37*0.000001</f>
         <v>3.7E-7</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G9" s="37">
         <f>1.7*0.000001</f>
         <v>1.6999999999999998E-6</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I9" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>2039</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>2046</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="33">
         <f>100*0.000000001</f>
         <v>1.0000000000000001E-7</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G10" s="35">
         <f>400*0.000000001</f>
         <v>4.0000000000000003E-7</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H10" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="23"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B11" s="5">
         <v>3035</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>3039</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="34">
         <f>1.03*0.0000000001</f>
         <v>1.0300000000000001E-10</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G11" s="37">
         <f>6.2*0.000000001</f>
         <v>6.2000000000000009E-9</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H11" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I11" s="25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+    <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>1999</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>2022</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="33">
         <f>1.03*0.0000000001</f>
         <v>1.0300000000000001E-10</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G12" s="35">
         <f>1.2*0.00000001</f>
         <v>1.2E-8</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>2004</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
         <v>2010</v>
       </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="34">
         <f>8.3*0.000000000001</f>
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G13" s="38">
         <f>6.2*0.000000001</f>
         <v>6.2000000000000009E-9</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>2019</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D14" s="3">
         <v>2026</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="33">
         <f>1.55*0.0000000001</f>
         <v>1.5500000000000001E-10</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G14" s="35">
         <f>6.2*0.000000001</f>
         <v>6.2000000000000009E-9</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H14" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I14" s="24" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1" display="https://www.esa.int/Science_Exploration/Space_Science/Gaia/Gaia_factsheet" xr:uid="{47F1ABF9-C16C-424F-8F06-93C566906D43}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{E7565AD9-9705-294B-A7AD-2B92AF120C13}"/>
+    <hyperlink ref="H10" r:id="rId2" xr:uid="{E7565AD9-9705-294B-A7AD-2B92AF120C13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1428,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C03418-53D9-564B-81F1-BC5D7421E986}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
